--- a/SRM_Pro/TB format.xlsx
+++ b/SRM_Pro/TB format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ICAI_Audit_Tool\nw\SRM_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4413119F-061C-4EAC-A5FA-BB25EEB37072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393DCD67-765C-4CF5-ABC8-FF127A29585F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{024B333F-E51D-4051-BE86-FFC39602633C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TrialBalance" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">TrialBalance!$D$1:$U$199</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">TrialBalance!$D$1:$U$198</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="252">
   <si>
     <t>Liabilities</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>_x0004_ Primary</t>
-  </si>
-  <si>
-    <t>Profit &amp; Loss A/c</t>
   </si>
   <si>
     <t>Cash</t>
@@ -946,8 +943,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD8CB62F-388F-42CC-8419-6A3579DB087F}" name="Query1" displayName="Query1" ref="A1:U199" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:U199" xr:uid="{BC14A0BD-9AB8-4D3E-AE68-B62FCEB39ECE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD8CB62F-388F-42CC-8419-6A3579DB087F}" name="Query1" displayName="Query1" ref="A1:U198" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:U198" xr:uid="{BC14A0BD-9AB8-4D3E-AE68-B62FCEB39ECE}"/>
   <tableColumns count="21">
     <tableColumn id="14" xr3:uid="{FDEF55CC-A15B-4E46-945F-90D18FFF484E}" uniqueName="14" name="Period" queryTableFieldId="14" dataDxfId="13"/>
     <tableColumn id="13" xr3:uid="{4FCBE154-FFD0-418E-AEC4-41C46B058DF5}" uniqueName="13" name="Branch" queryTableFieldId="13" dataDxfId="12"/>
@@ -1293,10 +1290,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3A4CD8-7009-42F8-9154-AC3911AC0C08}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:U199"/>
+  <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H199"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1317,72 +1314,72 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>27</v>
-      </c>
-      <c r="U1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>-534501</v>
@@ -1406,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -1417,7 +1414,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1441,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
@@ -1452,7 +1449,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1476,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
@@ -1487,7 +1484,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1511,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
         <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
       </c>
       <c r="N5" t="s">
         <v>5</v>
@@ -1522,7 +1519,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>-43181.59</v>
@@ -1546,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
         <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
       </c>
       <c r="N6" t="s">
         <v>5</v>
@@ -1557,7 +1554,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1581,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
         <v>35</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
       </c>
       <c r="N7" t="s">
         <v>5</v>
@@ -1592,7 +1589,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1616,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
         <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
       </c>
       <c r="N8" t="s">
         <v>5</v>
@@ -1627,7 +1624,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>-2530628.35</v>
@@ -1651,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" t="s">
         <v>5</v>
@@ -1659,7 +1656,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1683,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
         <v>5</v>
@@ -1691,7 +1688,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>30000</v>
@@ -1715,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
         <v>5</v>
@@ -1723,7 +1720,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1747,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>5</v>
@@ -1755,7 +1752,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1779,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>5</v>
@@ -1787,7 +1784,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1811,7 +1808,7 @@
         <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M14" t="s">
         <v>4</v>
@@ -1822,7 +1819,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>-106963</v>
@@ -1846,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15" t="s">
         <v>4</v>
@@ -1857,7 +1854,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1881,10 +1878,10 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N16" t="s">
         <v>5</v>
@@ -1892,7 +1889,7 @@
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1916,10 +1913,10 @@
         <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N17" t="s">
         <v>4</v>
@@ -1930,7 +1927,7 @@
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1954,10 +1951,10 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18" t="s">
         <v>5</v>
@@ -1965,7 +1962,7 @@
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1989,10 +1986,10 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" t="s">
         <v>40</v>
-      </c>
-      <c r="M19" t="s">
-        <v>41</v>
       </c>
       <c r="N19" t="s">
         <v>5</v>
@@ -2000,7 +1997,7 @@
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>-3806052.24</v>
@@ -2024,10 +2021,10 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N20" t="s">
         <v>5</v>
@@ -2035,7 +2032,7 @@
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2059,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M21" t="s">
         <v>5</v>
@@ -2067,7 +2064,7 @@
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2091,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" t="s">
         <v>35</v>
-      </c>
-      <c r="M22" t="s">
-        <v>36</v>
       </c>
       <c r="N22" t="s">
         <v>5</v>
@@ -2102,7 +2099,7 @@
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2134,7 +2131,7 @@
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2158,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" t="s">
         <v>40</v>
-      </c>
-      <c r="M24" t="s">
-        <v>41</v>
       </c>
       <c r="N24" t="s">
         <v>5</v>
@@ -2169,7 +2166,7 @@
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>-820513</v>
@@ -2193,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M25" t="s">
         <v>4</v>
@@ -2204,7 +2201,7 @@
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2228,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N26" t="s">
         <v>5</v>
@@ -2239,7 +2236,7 @@
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2263,13 +2260,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O27" t="s">
         <v>5</v>
@@ -2277,7 +2274,7 @@
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2301,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N28" t="s">
         <v>5</v>
@@ -2312,7 +2309,7 @@
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29">
         <v>29837</v>
@@ -2336,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N29" t="s">
         <v>5</v>
@@ -2347,7 +2344,7 @@
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2371,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M30" t="s">
         <v>5</v>
@@ -2379,7 +2376,7 @@
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2403,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" t="s">
         <v>35</v>
-      </c>
-      <c r="M31" t="s">
-        <v>36</v>
       </c>
       <c r="N31" t="s">
         <v>5</v>
@@ -2414,7 +2411,7 @@
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2438,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" t="s">
         <v>35</v>
-      </c>
-      <c r="M32" t="s">
-        <v>36</v>
       </c>
       <c r="N32" t="s">
         <v>5</v>
@@ -2449,7 +2446,7 @@
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2481,7 +2478,7 @@
     </row>
     <row r="34" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34">
         <v>-2039817</v>
@@ -2505,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="L34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M34" t="s">
         <v>4</v>
@@ -2516,7 +2513,7 @@
     </row>
     <row r="35" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2540,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M35" t="s">
         <v>4</v>
@@ -2551,7 +2548,7 @@
     </row>
     <row r="36" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2575,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M36" t="s">
         <v>5</v>
@@ -2583,7 +2580,7 @@
     </row>
     <row r="37" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2607,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M37" t="s">
         <v>5</v>
@@ -2615,7 +2612,7 @@
     </row>
     <row r="38" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2639,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M38" t="s">
         <v>5</v>
@@ -2647,7 +2644,7 @@
     </row>
     <row r="39" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39">
         <v>-44185.32</v>
@@ -2671,7 +2668,7 @@
         <v>2</v>
       </c>
       <c r="L39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M39" t="s">
         <v>5</v>
@@ -2679,7 +2676,7 @@
     </row>
     <row r="40" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2703,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M40" t="s">
         <v>5</v>
@@ -2711,7 +2708,7 @@
     </row>
     <row r="41" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41">
         <v>-148093.63</v>
@@ -2735,10 +2732,10 @@
         <v>2</v>
       </c>
       <c r="L41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N41" t="s">
         <v>4</v>
@@ -2749,7 +2746,7 @@
     </row>
     <row r="42" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2773,10 +2770,10 @@
         <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N42" t="s">
         <v>4</v>
@@ -2787,7 +2784,7 @@
     </row>
     <row r="43" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2811,10 +2808,10 @@
         <v>2</v>
       </c>
       <c r="L43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N43" t="s">
         <v>4</v>
@@ -2825,7 +2822,7 @@
     </row>
     <row r="44" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2849,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M44" t="s">
         <v>5</v>
@@ -2857,7 +2854,7 @@
     </row>
     <row r="45" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2881,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M45" t="s">
         <v>5</v>
@@ -2889,7 +2886,7 @@
     </row>
     <row r="46" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2913,10 +2910,10 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" t="s">
         <v>40</v>
-      </c>
-      <c r="M46" t="s">
-        <v>41</v>
       </c>
       <c r="N46" t="s">
         <v>5</v>
@@ -2924,7 +2921,7 @@
     </row>
     <row r="47" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2948,10 +2945,10 @@
         <v>2</v>
       </c>
       <c r="L47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N47" t="s">
         <v>4</v>
@@ -2962,7 +2959,7 @@
     </row>
     <row r="48" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2986,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" t="s">
         <v>35</v>
-      </c>
-      <c r="M48" t="s">
-        <v>36</v>
       </c>
       <c r="N48" t="s">
         <v>5</v>
@@ -2997,7 +2994,7 @@
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3021,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M49" t="s">
         <v>5</v>
@@ -3029,7 +3026,7 @@
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50">
         <v>-127360.69</v>
@@ -3053,7 +3050,7 @@
         <v>2</v>
       </c>
       <c r="L50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M50" t="s">
         <v>5</v>
@@ -3061,7 +3058,7 @@
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E51">
         <v>509882</v>
@@ -3085,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M51" t="s">
         <v>5</v>
@@ -3093,7 +3090,7 @@
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3125,7 +3122,7 @@
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3149,10 +3146,10 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" t="s">
         <v>35</v>
-      </c>
-      <c r="M53" t="s">
-        <v>36</v>
       </c>
       <c r="N53" t="s">
         <v>5</v>
@@ -3160,7 +3157,7 @@
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3184,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" t="s">
         <v>35</v>
-      </c>
-      <c r="M54" t="s">
-        <v>36</v>
       </c>
       <c r="N54" t="s">
         <v>5</v>
@@ -3195,7 +3192,7 @@
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3219,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M55" t="s">
         <v>5</v>
@@ -3227,7 +3224,7 @@
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E56">
         <v>88052</v>
@@ -3251,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" t="s">
         <v>35</v>
-      </c>
-      <c r="M56" t="s">
-        <v>36</v>
       </c>
       <c r="N56" t="s">
         <v>5</v>
@@ -3262,7 +3259,7 @@
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3286,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" t="s">
         <v>35</v>
-      </c>
-      <c r="M57" t="s">
-        <v>36</v>
       </c>
       <c r="N57" t="s">
         <v>5</v>
@@ -3297,7 +3294,7 @@
     </row>
     <row r="58" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E58">
         <v>-3213511</v>
@@ -3321,7 +3318,7 @@
         <v>2</v>
       </c>
       <c r="L58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M58" t="s">
         <v>5</v>
@@ -3329,7 +3326,7 @@
     </row>
     <row r="59" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3353,7 +3350,7 @@
         <v>2</v>
       </c>
       <c r="L59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M59" t="s">
         <v>5</v>
@@ -3361,7 +3358,7 @@
     </row>
     <row r="60" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E60">
         <v>-2084205</v>
@@ -3385,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="L60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M60" t="s">
         <v>5</v>
@@ -3393,7 +3390,7 @@
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3417,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="L61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M61" t="s">
         <v>5</v>
@@ -3425,7 +3422,7 @@
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E62">
         <v>-296879</v>
@@ -3449,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="L62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M62" t="s">
         <v>5</v>
@@ -3457,7 +3454,7 @@
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E63">
         <v>-442562</v>
@@ -3481,7 +3478,7 @@
         <v>2</v>
       </c>
       <c r="L63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M63" t="s">
         <v>5</v>
@@ -3489,7 +3486,7 @@
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E64">
         <v>-6387614</v>
@@ -3513,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="L64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M64" t="s">
         <v>5</v>
@@ -3521,7 +3518,7 @@
     </row>
     <row r="65" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E65">
         <v>-751165</v>
@@ -3545,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="L65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M65" t="s">
         <v>5</v>
@@ -3553,7 +3550,7 @@
     </row>
     <row r="66" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E66">
         <v>-856092</v>
@@ -3577,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="L66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M66" t="s">
         <v>5</v>
@@ -3585,7 +3582,7 @@
     </row>
     <row r="67" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E67">
         <v>-318318</v>
@@ -3609,7 +3606,7 @@
         <v>2</v>
       </c>
       <c r="L67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M67" t="s">
         <v>5</v>
@@ -3617,7 +3614,7 @@
     </row>
     <row r="68" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3638,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M68" t="s">
         <v>5</v>
@@ -3649,7 +3646,7 @@
     </row>
     <row r="69" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3673,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M69" t="s">
         <v>5</v>
@@ -3681,7 +3678,7 @@
     </row>
     <row r="70" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E70">
         <v>-2154</v>
@@ -3705,7 +3702,7 @@
         <v>2</v>
       </c>
       <c r="L70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M70" t="s">
         <v>5</v>
@@ -3713,7 +3710,7 @@
     </row>
     <row r="71" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3737,10 +3734,10 @@
         <v>1</v>
       </c>
       <c r="L71" t="s">
+        <v>39</v>
+      </c>
+      <c r="M71" t="s">
         <v>40</v>
-      </c>
-      <c r="M71" t="s">
-        <v>41</v>
       </c>
       <c r="N71" t="s">
         <v>5</v>
@@ -3748,7 +3745,7 @@
     </row>
     <row r="72" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3772,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M72" t="s">
         <v>5</v>
@@ -3780,7 +3777,7 @@
     </row>
     <row r="73" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E73">
         <v>-1449703</v>
@@ -3804,7 +3801,7 @@
         <v>2</v>
       </c>
       <c r="L73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M73" t="s">
         <v>4</v>
@@ -3815,7 +3812,7 @@
     </row>
     <row r="74" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E74">
         <v>-154750</v>
@@ -3839,7 +3836,7 @@
         <v>2</v>
       </c>
       <c r="L74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M74" t="s">
         <v>4</v>
@@ -3850,7 +3847,7 @@
     </row>
     <row r="75" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3874,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M75" t="s">
         <v>5</v>
@@ -3882,7 +3879,7 @@
     </row>
     <row r="76" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3906,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N76" t="s">
         <v>5</v>
@@ -3917,7 +3914,7 @@
     </row>
     <row r="77" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3941,10 +3938,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N77" t="s">
         <v>5</v>
@@ -3952,7 +3949,7 @@
     </row>
     <row r="78" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3976,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N78" t="s">
         <v>5</v>
@@ -3987,7 +3984,7 @@
     </row>
     <row r="79" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4011,13 +4008,13 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O79" t="s">
         <v>5</v>
@@ -4025,7 +4022,7 @@
     </row>
     <row r="80" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E80">
         <v>-550000</v>
@@ -4049,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="L80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M80" t="s">
         <v>4</v>
@@ -4060,7 +4057,7 @@
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4084,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M81" t="s">
         <v>5</v>
@@ -4092,7 +4089,7 @@
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4116,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="L82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M82" t="s">
         <v>4</v>
@@ -4127,7 +4124,7 @@
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4151,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="L83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M83" t="s">
         <v>4</v>
@@ -4162,7 +4159,7 @@
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4186,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
+        <v>34</v>
+      </c>
+      <c r="M84" t="s">
         <v>35</v>
-      </c>
-      <c r="M84" t="s">
-        <v>36</v>
       </c>
       <c r="N84" t="s">
         <v>5</v>
@@ -4197,7 +4194,7 @@
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4221,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M85" t="s">
         <v>5</v>
@@ -4229,7 +4226,7 @@
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4250,10 +4247,10 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
+        <v>82</v>
+      </c>
+      <c r="L86" t="s">
         <v>83</v>
-      </c>
-      <c r="L86" t="s">
-        <v>84</v>
       </c>
       <c r="M86" t="s">
         <v>5</v>
@@ -4261,7 +4258,7 @@
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4285,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M87" t="s">
         <v>5</v>
@@ -4293,7 +4290,7 @@
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4314,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
+        <v>82</v>
+      </c>
+      <c r="L88" t="s">
         <v>83</v>
-      </c>
-      <c r="L88" t="s">
-        <v>84</v>
       </c>
       <c r="M88" t="s">
         <v>5</v>
@@ -4325,7 +4322,7 @@
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4349,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N89" t="s">
         <v>5</v>
@@ -4360,7 +4357,7 @@
     </row>
     <row r="90" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4384,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="L90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M90" t="s">
         <v>4</v>
@@ -4395,7 +4392,7 @@
     </row>
     <row r="91" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4419,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
+        <v>34</v>
+      </c>
+      <c r="M91" t="s">
         <v>35</v>
-      </c>
-      <c r="M91" t="s">
-        <v>36</v>
       </c>
       <c r="N91" t="s">
         <v>5</v>
@@ -4430,7 +4427,7 @@
     </row>
     <row r="92" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4454,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
+        <v>34</v>
+      </c>
+      <c r="M92" t="s">
         <v>35</v>
-      </c>
-      <c r="M92" t="s">
-        <v>36</v>
       </c>
       <c r="N92" t="s">
         <v>5</v>
@@ -4465,7 +4462,7 @@
     </row>
     <row r="93" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4489,7 +4486,7 @@
         <v>2</v>
       </c>
       <c r="L93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M93" t="s">
         <v>4</v>
@@ -4500,7 +4497,7 @@
     </row>
     <row r="94" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4524,7 +4521,7 @@
         <v>2</v>
       </c>
       <c r="L94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M94" t="s">
         <v>4</v>
@@ -4535,7 +4532,7 @@
     </row>
     <row r="95" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E95">
         <v>-494064.5</v>
@@ -4559,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="L95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M95" t="s">
         <v>4</v>
@@ -4570,7 +4567,7 @@
     </row>
     <row r="96" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E96">
         <v>-215367</v>
@@ -4594,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="L96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M96" t="s">
         <v>4</v>
@@ -4605,7 +4602,7 @@
     </row>
     <row r="97" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4629,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="L97" t="s">
+        <v>39</v>
+      </c>
+      <c r="M97" t="s">
         <v>40</v>
-      </c>
-      <c r="M97" t="s">
-        <v>41</v>
       </c>
       <c r="N97" t="s">
         <v>5</v>
@@ -4640,7 +4637,7 @@
     </row>
     <row r="98" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E98">
         <v>117239.07</v>
@@ -4664,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N98" t="s">
         <v>5</v>
@@ -4675,7 +4672,7 @@
     </row>
     <row r="99" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4699,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="L99" t="s">
+        <v>34</v>
+      </c>
+      <c r="M99" t="s">
         <v>35</v>
-      </c>
-      <c r="M99" t="s">
-        <v>36</v>
       </c>
       <c r="N99" t="s">
         <v>5</v>
@@ -4710,7 +4707,7 @@
     </row>
     <row r="100" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4734,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
+        <v>34</v>
+      </c>
+      <c r="M100" t="s">
         <v>35</v>
-      </c>
-      <c r="M100" t="s">
-        <v>36</v>
       </c>
       <c r="N100" t="s">
         <v>5</v>
@@ -4745,7 +4742,7 @@
     </row>
     <row r="101" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4769,10 +4766,10 @@
         <v>0</v>
       </c>
       <c r="L101" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101" t="s">
         <v>35</v>
-      </c>
-      <c r="M101" t="s">
-        <v>36</v>
       </c>
       <c r="N101" t="s">
         <v>5</v>
@@ -4780,7 +4777,7 @@
     </row>
     <row r="102" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E102">
         <v>-206696</v>
@@ -4804,7 +4801,7 @@
         <v>2</v>
       </c>
       <c r="L102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M102" t="s">
         <v>4</v>
@@ -4815,7 +4812,7 @@
     </row>
     <row r="103" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4836,10 +4833,10 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M103" t="s">
         <v>5</v>
@@ -4847,7 +4844,7 @@
     </row>
     <row r="104" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4879,7 +4876,7 @@
     </row>
     <row r="105" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4903,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M105" t="s">
         <v>5</v>
@@ -4911,7 +4908,7 @@
     </row>
     <row r="106" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4932,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L106" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M106" t="s">
         <v>5</v>
@@ -4943,7 +4940,7 @@
     </row>
     <row r="107" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E107">
         <v>2000000</v>
@@ -4967,10 +4964,10 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
+        <v>34</v>
+      </c>
+      <c r="M107" t="s">
         <v>35</v>
-      </c>
-      <c r="M107" t="s">
-        <v>36</v>
       </c>
       <c r="N107" t="s">
         <v>5</v>
@@ -4978,7 +4975,7 @@
     </row>
     <row r="108" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -5002,10 +4999,10 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
+        <v>34</v>
+      </c>
+      <c r="M108" t="s">
         <v>35</v>
-      </c>
-      <c r="M108" t="s">
-        <v>36</v>
       </c>
       <c r="N108" t="s">
         <v>5</v>
@@ -5013,7 +5010,7 @@
     </row>
     <row r="109" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E109">
         <v>-52828.51</v>
@@ -5037,10 +5034,10 @@
         <v>2</v>
       </c>
       <c r="L109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N109" t="s">
         <v>5</v>
@@ -5048,7 +5045,7 @@
     </row>
     <row r="110" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E110">
         <v>1442782</v>
@@ -5072,10 +5069,10 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
+        <v>34</v>
+      </c>
+      <c r="M110" t="s">
         <v>35</v>
-      </c>
-      <c r="M110" t="s">
-        <v>36</v>
       </c>
       <c r="N110" t="s">
         <v>5</v>
@@ -5083,7 +5080,7 @@
     </row>
     <row r="111" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5107,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
+        <v>34</v>
+      </c>
+      <c r="M111" t="s">
         <v>35</v>
-      </c>
-      <c r="M111" t="s">
-        <v>36</v>
       </c>
       <c r="N111" t="s">
         <v>5</v>
@@ -5118,7 +5115,7 @@
     </row>
     <row r="112" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -5142,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M112" t="s">
         <v>5</v>
@@ -5150,7 +5147,7 @@
     </row>
     <row r="113" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E113">
         <v>-1674081</v>
@@ -5174,7 +5171,7 @@
         <v>2</v>
       </c>
       <c r="L113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M113" t="s">
         <v>4</v>
@@ -5185,7 +5182,7 @@
     </row>
     <row r="114" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -5209,7 +5206,7 @@
         <v>2</v>
       </c>
       <c r="L114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M114" t="s">
         <v>4</v>
@@ -5220,7 +5217,7 @@
     </row>
     <row r="115" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -5241,10 +5238,10 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M115" t="s">
         <v>5</v>
@@ -5252,7 +5249,7 @@
     </row>
     <row r="116" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -5276,10 +5273,10 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
+        <v>34</v>
+      </c>
+      <c r="M116" t="s">
         <v>35</v>
-      </c>
-      <c r="M116" t="s">
-        <v>36</v>
       </c>
       <c r="N116" t="s">
         <v>5</v>
@@ -5287,7 +5284,7 @@
     </row>
     <row r="117" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -5311,10 +5308,10 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
+        <v>34</v>
+      </c>
+      <c r="M117" t="s">
         <v>35</v>
-      </c>
-      <c r="M117" t="s">
-        <v>36</v>
       </c>
       <c r="N117" t="s">
         <v>5</v>
@@ -5322,7 +5319,7 @@
     </row>
     <row r="118" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -5346,10 +5343,10 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
+        <v>34</v>
+      </c>
+      <c r="M118" t="s">
         <v>35</v>
-      </c>
-      <c r="M118" t="s">
-        <v>36</v>
       </c>
       <c r="N118" t="s">
         <v>5</v>
@@ -5357,7 +5354,7 @@
     </row>
     <row r="119" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -5381,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="L119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M119" t="s">
         <v>5</v>
@@ -5389,7 +5386,7 @@
     </row>
     <row r="120" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -5413,7 +5410,7 @@
         <v>2</v>
       </c>
       <c r="L120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M120" t="s">
         <v>4</v>
@@ -5424,7 +5421,7 @@
     </row>
     <row r="121" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -5448,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="L121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M121" t="s">
         <v>5</v>
@@ -5456,7 +5453,7 @@
     </row>
     <row r="122" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E122">
         <v>500</v>
@@ -5480,10 +5477,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N122" t="s">
         <v>5</v>
@@ -5491,7 +5488,7 @@
     </row>
     <row r="123" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -5515,10 +5512,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N123" t="s">
         <v>5</v>
@@ -5526,7 +5523,7 @@
     </row>
     <row r="124" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E124">
         <v>6435</v>
@@ -5550,10 +5547,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N124" t="s">
         <v>5</v>
@@ -5561,7 +5558,7 @@
     </row>
     <row r="125" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -5585,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="L125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M125" t="s">
         <v>5</v>
@@ -5593,7 +5590,7 @@
     </row>
     <row r="126" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E126">
         <v>6701</v>
@@ -5617,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N126" t="s">
         <v>5</v>
@@ -5628,7 +5625,7 @@
     </row>
     <row r="127" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -5652,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
+        <v>34</v>
+      </c>
+      <c r="M127" t="s">
         <v>35</v>
-      </c>
-      <c r="M127" t="s">
-        <v>36</v>
       </c>
       <c r="N127" t="s">
         <v>5</v>
@@ -5663,7 +5660,7 @@
     </row>
     <row r="128" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E128">
         <v>-4608427.3899999997</v>
@@ -5687,10 +5684,10 @@
         <v>2</v>
       </c>
       <c r="L128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N128" t="s">
         <v>5</v>
@@ -5698,7 +5695,7 @@
     </row>
     <row r="129" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -5730,7 +5727,7 @@
     </row>
     <row r="130" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -5754,10 +5751,10 @@
         <v>1</v>
       </c>
       <c r="L130" t="s">
+        <v>39</v>
+      </c>
+      <c r="M130" t="s">
         <v>40</v>
-      </c>
-      <c r="M130" t="s">
-        <v>41</v>
       </c>
       <c r="N130" t="s">
         <v>5</v>
@@ -5765,7 +5762,7 @@
     </row>
     <row r="131" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -5789,10 +5786,10 @@
         <v>1</v>
       </c>
       <c r="L131" t="s">
+        <v>39</v>
+      </c>
+      <c r="M131" t="s">
         <v>40</v>
-      </c>
-      <c r="M131" t="s">
-        <v>41</v>
       </c>
       <c r="N131" t="s">
         <v>5</v>
@@ -5800,7 +5797,7 @@
     </row>
     <row r="132" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -5824,10 +5821,10 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
+        <v>34</v>
+      </c>
+      <c r="M132" t="s">
         <v>35</v>
-      </c>
-      <c r="M132" t="s">
-        <v>36</v>
       </c>
       <c r="N132" t="s">
         <v>5</v>
@@ -5835,7 +5832,7 @@
     </row>
     <row r="133" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -5859,7 +5856,7 @@
         <v>2</v>
       </c>
       <c r="L133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M133" t="s">
         <v>4</v>
@@ -5870,7 +5867,7 @@
     </row>
     <row r="134" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E134">
         <v>-101209</v>
@@ -5894,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="L134" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M134" t="s">
         <v>4</v>
@@ -5905,7 +5902,7 @@
     </row>
     <row r="135" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -5929,10 +5926,10 @@
         <v>1</v>
       </c>
       <c r="L135" t="s">
+        <v>39</v>
+      </c>
+      <c r="M135" t="s">
         <v>40</v>
-      </c>
-      <c r="M135" t="s">
-        <v>41</v>
       </c>
       <c r="N135" t="s">
         <v>5</v>
@@ -5940,7 +5937,7 @@
     </row>
     <row r="136" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5964,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="L136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M136" t="s">
         <v>5</v>
@@ -5972,7 +5969,7 @@
     </row>
     <row r="137" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -5996,10 +5993,10 @@
         <v>1</v>
       </c>
       <c r="L137" t="s">
+        <v>39</v>
+      </c>
+      <c r="M137" t="s">
         <v>40</v>
-      </c>
-      <c r="M137" t="s">
-        <v>41</v>
       </c>
       <c r="N137" t="s">
         <v>5</v>
@@ -6007,19 +6004,19 @@
     </row>
     <row r="138" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>510258</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>534136</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>562454</v>
       </c>
       <c r="H138">
-        <v>1498426.28</v>
+        <v>538576</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -6031,6 +6028,12 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
+        <v>148</v>
+      </c>
+      <c r="M138" t="s">
+        <v>35</v>
+      </c>
+      <c r="N138" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6039,33 +6042,30 @@
         <v>189</v>
       </c>
       <c r="E139">
-        <v>510258</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>534136</v>
+        <v>1952750</v>
       </c>
       <c r="G139">
-        <v>562454</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>538576</v>
+        <v>-1952750</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="M139" t="s">
-        <v>36</v>
-      </c>
-      <c r="N139" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6077,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1952750</v>
+        <v>15098907</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140">
-        <v>-1952750</v>
+        <v>-15098907</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -6095,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="L140" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="M140" t="s">
         <v>5</v>
@@ -6109,13 +6109,13 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>15098907</v>
+        <v>35546128.840000004</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
-        <v>-15098907</v>
+        <v>-35546128.840000004</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -6127,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="L141" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M141" t="s">
         <v>5</v>
@@ -6138,30 +6138,33 @@
         <v>192</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>-141650</v>
       </c>
       <c r="F142">
-        <v>35546128.840000004</v>
+        <v>0</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
-        <v>-35546128.840000004</v>
+        <v>-141650</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142">
         <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L142" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="M142" t="s">
+        <v>4</v>
+      </c>
+      <c r="N142" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6170,31 +6173,31 @@
         <v>193</v>
       </c>
       <c r="E143">
-        <v>-141650</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>863900</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>863900</v>
       </c>
       <c r="H143">
-        <v>-141650</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M143" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N143" t="s">
         <v>5</v>
@@ -6208,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>863900</v>
+        <v>4217500</v>
       </c>
       <c r="G144">
-        <v>863900</v>
+        <v>4217500</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -6220,16 +6223,16 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L144" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M144" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="N144" t="s">
         <v>5</v>
@@ -6240,13 +6243,13 @@
         <v>195</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="F145">
-        <v>4217500</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>4217500</v>
+        <v>46</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -6255,16 +6258,16 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="M145" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N145" t="s">
         <v>5</v>
@@ -6296,10 +6299,10 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N146" t="s">
         <v>5</v>
@@ -6310,33 +6313,30 @@
         <v>197</v>
       </c>
       <c r="E147">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="G147">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>-240000</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="M147" t="s">
-        <v>36</v>
-      </c>
-      <c r="N147" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6348,13 +6348,13 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>240000</v>
+        <v>48530</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>-240000</v>
+        <v>-48530</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -6366,9 +6366,12 @@
         <v>1</v>
       </c>
       <c r="L148" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="M148" t="s">
+        <v>40</v>
+      </c>
+      <c r="N148" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6380,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>48530</v>
+        <v>1403929.16</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
-        <v>-48530</v>
+        <v>-1403929.16</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -6398,12 +6401,9 @@
         <v>1</v>
       </c>
       <c r="L149" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="M149" t="s">
-        <v>41</v>
-      </c>
-      <c r="N149" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6412,65 +6412,65 @@
         <v>200</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>40961630.630000003</v>
       </c>
       <c r="F150">
-        <v>1403929.16</v>
+        <v>0</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>-1403929.16</v>
+        <v>40961630.630000003</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="M150" t="s">
+        <v>32</v>
+      </c>
+      <c r="N150" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="151" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E151">
-        <v>40961630.630000003</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
-        <v>40961630.630000003</v>
+        <v>-8500</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L151" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="M151" t="s">
-        <v>33</v>
-      </c>
-      <c r="N151" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6482,13 +6482,13 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>8500</v>
+        <v>20.66</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>90.07</v>
       </c>
       <c r="H152">
-        <v>-8500</v>
+        <v>69.41</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -6500,9 +6500,12 @@
         <v>1</v>
       </c>
       <c r="L152" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M152" t="s">
+        <v>40</v>
+      </c>
+      <c r="N152" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6511,31 +6514,31 @@
         <v>204</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>8484.98</v>
       </c>
       <c r="F153">
-        <v>20.66</v>
+        <v>4733638</v>
       </c>
       <c r="G153">
-        <v>90.07</v>
+        <v>4733638</v>
       </c>
       <c r="H153">
-        <v>69.41</v>
+        <v>8484.98</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153">
         <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L153" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M153" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="N153" t="s">
         <v>5</v>
@@ -6543,66 +6546,63 @@
     </row>
     <row r="154" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="E154">
-        <v>8484.98</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>4733638</v>
+        <v>778800</v>
       </c>
       <c r="G154">
-        <v>4733638</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>8484.98</v>
+        <v>-778800</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L154" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M154" t="s">
-        <v>4</v>
-      </c>
-      <c r="N154" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="155" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D155" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155">
-        <v>778800</v>
+        <v>194788</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>19512319</v>
       </c>
       <c r="H155">
-        <v>-778800</v>
+        <v>19317531</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="L155" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="M155" t="s">
         <v>5</v>
@@ -6616,13 +6616,13 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>194788</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>19512319</v>
+        <v>66059188.759999998</v>
       </c>
       <c r="H156">
-        <v>19317531</v>
+        <v>66059188.759999998</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -6631,45 +6631,48 @@
         <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L156" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="M156" t="s">
+        <v>85</v>
+      </c>
+      <c r="N156" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="157" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>18290</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>30580</v>
       </c>
       <c r="G157">
-        <v>66059188.759999998</v>
+        <v>12290</v>
       </c>
       <c r="H157">
-        <v>66059188.759999998</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
       <c r="M157" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="N157" t="s">
         <v>5</v>
@@ -6680,13 +6683,13 @@
         <v>209</v>
       </c>
       <c r="E158">
-        <v>18290</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>30580</v>
+        <v>164898</v>
       </c>
       <c r="G158">
-        <v>12290</v>
+        <v>164898</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -6701,10 +6704,10 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
+        <v>34</v>
+      </c>
+      <c r="M158" t="s">
         <v>35</v>
-      </c>
-      <c r="M158" t="s">
-        <v>36</v>
       </c>
       <c r="N158" t="s">
         <v>5</v>
@@ -6718,10 +6721,10 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>164898</v>
+        <v>72613</v>
       </c>
       <c r="G159">
-        <v>164898</v>
+        <v>72613</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -6730,16 +6733,16 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L159" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M159" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="N159" t="s">
         <v>5</v>
@@ -6753,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>72613</v>
+        <v>637200</v>
       </c>
       <c r="G160">
-        <v>72613</v>
+        <v>637200</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -6765,16 +6768,16 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M160" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N160" t="s">
         <v>5</v>
@@ -6785,16 +6788,16 @@
         <v>212</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>-13904686.560000001</v>
       </c>
       <c r="F161">
-        <v>637200</v>
+        <v>254784030</v>
       </c>
       <c r="G161">
-        <v>637200</v>
+        <v>252112590.52000001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>-16576126.039999999</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -6806,10 +6809,10 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="M161" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="N161" t="s">
         <v>5</v>
@@ -6817,19 +6820,19 @@
     </row>
     <row r="162" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E162">
-        <v>-13904686.560000001</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>254784030</v>
+        <v>76966</v>
       </c>
       <c r="G162">
-        <v>252112590.52000001</v>
+        <v>76966</v>
       </c>
       <c r="H162">
-        <v>-16576126.039999999</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -6841,10 +6844,10 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="M162" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="N162" t="s">
         <v>5</v>
@@ -6855,16 +6858,16 @@
         <v>215</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>17215279.609999999</v>
       </c>
       <c r="F163">
-        <v>76966</v>
+        <v>322816033</v>
       </c>
       <c r="G163">
-        <v>76966</v>
+        <v>317576296.92000002</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>11975543.529999999</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -6876,10 +6879,10 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="M163" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="N163" t="s">
         <v>5</v>
@@ -6890,31 +6893,31 @@
         <v>216</v>
       </c>
       <c r="E164">
-        <v>17215279.609999999</v>
+        <v>-4500</v>
       </c>
       <c r="F164">
-        <v>322816033</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>317576296.92000002</v>
+        <v>4500</v>
       </c>
       <c r="H164">
-        <v>11975543.529999999</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L164" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="M164" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="N164" t="s">
         <v>5</v>
@@ -6925,13 +6928,13 @@
         <v>217</v>
       </c>
       <c r="E165">
-        <v>-4500</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>39968.49</v>
       </c>
       <c r="G165">
-        <v>4500</v>
+        <v>39968.49</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -6940,16 +6943,16 @@
         <v>0</v>
       </c>
       <c r="J165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="M165" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N165" t="s">
         <v>5</v>
@@ -6963,10 +6966,10 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>39968.49</v>
+        <v>565254.65</v>
       </c>
       <c r="G166">
-        <v>39968.49</v>
+        <v>565254.65</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -6981,10 +6984,10 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
+        <v>68</v>
+      </c>
+      <c r="M166" t="s">
         <v>35</v>
-      </c>
-      <c r="M166" t="s">
-        <v>36</v>
       </c>
       <c r="N166" t="s">
         <v>5</v>
@@ -6998,10 +7001,10 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>565254.65</v>
+        <v>487808.23</v>
       </c>
       <c r="G167">
-        <v>565254.65</v>
+        <v>487808.23</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -7016,10 +7019,10 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N167" t="s">
         <v>5</v>
@@ -7030,16 +7033,16 @@
         <v>220</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>29837</v>
       </c>
       <c r="F168">
-        <v>487808.23</v>
+        <v>29837</v>
       </c>
       <c r="G168">
-        <v>487808.23</v>
+        <v>47308</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>47308</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -7051,10 +7054,10 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N168" t="s">
         <v>5</v>
@@ -7065,16 +7068,16 @@
         <v>221</v>
       </c>
       <c r="E169">
-        <v>29837</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>29837</v>
+        <v>481094.79</v>
       </c>
       <c r="G169">
-        <v>47308</v>
+        <v>481094.79</v>
       </c>
       <c r="H169">
-        <v>47308</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -7086,12 +7089,15 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M169" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="N169" t="s">
+        <v>35</v>
+      </c>
+      <c r="O169" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7100,16 +7106,16 @@
         <v>222</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>21110980</v>
       </c>
       <c r="F170">
-        <v>481094.79</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>481094.79</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>21110980</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -7121,15 +7127,12 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="M170" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="N170" t="s">
-        <v>36</v>
-      </c>
-      <c r="O170" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7138,31 +7141,31 @@
         <v>223</v>
       </c>
       <c r="E171">
-        <v>21110980</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>2620110</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <v>21110980</v>
+        <v>-2620110</v>
       </c>
       <c r="I171">
         <v>0</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K171" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L171" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="M171" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="N171" t="s">
         <v>5</v>
@@ -7176,28 +7179,28 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>2620110</v>
+        <v>306899</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>306899</v>
       </c>
       <c r="H172">
-        <v>-2620110</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
       </c>
       <c r="J172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M172" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N172" t="s">
         <v>5</v>
@@ -7211,10 +7214,10 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>306899</v>
+        <v>3262300</v>
       </c>
       <c r="G173">
-        <v>306899</v>
+        <v>3262300</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -7223,16 +7226,16 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L173" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M173" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="N173" t="s">
         <v>5</v>
@@ -7246,10 +7249,10 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>3262300</v>
+        <v>26620889</v>
       </c>
       <c r="G174">
-        <v>3262300</v>
+        <v>26620889</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -7264,7 +7267,7 @@
         <v>2</v>
       </c>
       <c r="L174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M174" t="s">
         <v>4</v>
@@ -7281,10 +7284,10 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>26620889</v>
+        <v>92222</v>
       </c>
       <c r="G175">
-        <v>26620889</v>
+        <v>92222</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -7293,16 +7296,16 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M175" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N175" t="s">
         <v>5</v>
@@ -7316,10 +7319,10 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>92222</v>
+        <v>163049</v>
       </c>
       <c r="G176">
-        <v>92222</v>
+        <v>163049</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -7334,10 +7337,10 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
+        <v>34</v>
+      </c>
+      <c r="M176" t="s">
         <v>35</v>
-      </c>
-      <c r="M176" t="s">
-        <v>36</v>
       </c>
       <c r="N176" t="s">
         <v>5</v>
@@ -7348,13 +7351,13 @@
         <v>229</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="F177">
-        <v>163049</v>
+        <v>990000</v>
       </c>
       <c r="G177">
-        <v>163049</v>
+        <v>750000</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -7369,10 +7372,10 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
+        <v>34</v>
+      </c>
+      <c r="M177" t="s">
         <v>35</v>
-      </c>
-      <c r="M177" t="s">
-        <v>36</v>
       </c>
       <c r="N177" t="s">
         <v>5</v>
@@ -7383,13 +7386,13 @@
         <v>230</v>
       </c>
       <c r="E178">
-        <v>240000</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>990000</v>
+        <v>4130</v>
       </c>
       <c r="G178">
-        <v>750000</v>
+        <v>4130</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -7404,10 +7407,10 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
+        <v>34</v>
+      </c>
+      <c r="M178" t="s">
         <v>35</v>
-      </c>
-      <c r="M178" t="s">
-        <v>36</v>
       </c>
       <c r="N178" t="s">
         <v>5</v>
@@ -7421,10 +7424,10 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>4130</v>
+        <v>13216</v>
       </c>
       <c r="G179">
-        <v>4130</v>
+        <v>13216</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -7439,10 +7442,10 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
+        <v>34</v>
+      </c>
+      <c r="M179" t="s">
         <v>35</v>
-      </c>
-      <c r="M179" t="s">
-        <v>36</v>
       </c>
       <c r="N179" t="s">
         <v>5</v>
@@ -7456,28 +7459,28 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>13216</v>
+        <v>4157860</v>
       </c>
       <c r="G180">
-        <v>13216</v>
+        <v>3985213</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>-172647</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L180" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M180" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="N180" t="s">
         <v>5</v>
@@ -7491,28 +7494,28 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>4157860</v>
+        <v>80600</v>
       </c>
       <c r="G181">
-        <v>3985213</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>-172647</v>
+        <v>-80600</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181">
         <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L181" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M181" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="N181" t="s">
         <v>5</v>
@@ -7526,28 +7529,28 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>80600</v>
+        <v>204375</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>204375</v>
       </c>
       <c r="H182">
-        <v>-80600</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182">
         <v>1</v>
       </c>
       <c r="K182" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L182" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M182" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="N182" t="s">
         <v>5</v>
@@ -7558,13 +7561,13 @@
         <v>235</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>-112158</v>
       </c>
       <c r="F183">
-        <v>204375</v>
+        <v>0</v>
       </c>
       <c r="G183">
-        <v>204375</v>
+        <v>112158</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -7579,7 +7582,7 @@
         <v>2</v>
       </c>
       <c r="L183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M183" t="s">
         <v>4</v>
@@ -7593,16 +7596,16 @@
         <v>236</v>
       </c>
       <c r="E184">
-        <v>-112158</v>
+        <v>-42819</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>439632</v>
       </c>
       <c r="G184">
-        <v>112158</v>
+        <v>438135</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>-44316</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -7614,7 +7617,7 @@
         <v>2</v>
       </c>
       <c r="L184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M184" t="s">
         <v>4</v>
@@ -7628,31 +7631,31 @@
         <v>237</v>
       </c>
       <c r="E185">
-        <v>-42819</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>439632</v>
+        <v>916</v>
       </c>
       <c r="G185">
-        <v>438135</v>
+        <v>916</v>
       </c>
       <c r="H185">
-        <v>-44316</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K185" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L185" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M185" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N185" t="s">
         <v>5</v>
@@ -7666,10 +7669,10 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>916</v>
+        <v>14000</v>
       </c>
       <c r="G186">
-        <v>916</v>
+        <v>14000</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -7684,10 +7687,10 @@
         <v>0</v>
       </c>
       <c r="L186" t="s">
+        <v>34</v>
+      </c>
+      <c r="M186" t="s">
         <v>35</v>
-      </c>
-      <c r="M186" t="s">
-        <v>36</v>
       </c>
       <c r="N186" t="s">
         <v>5</v>
@@ -7698,31 +7701,31 @@
         <v>239</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>39975</v>
       </c>
       <c r="F187">
-        <v>14000</v>
+        <v>86450</v>
       </c>
       <c r="G187">
-        <v>14000</v>
+        <v>39975</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>-6500</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K187" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L187" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="M187" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="N187" t="s">
         <v>5</v>
@@ -7733,16 +7736,16 @@
         <v>240</v>
       </c>
       <c r="E188">
-        <v>39975</v>
+        <v>-22514</v>
       </c>
       <c r="F188">
-        <v>86450</v>
+        <v>8301</v>
       </c>
       <c r="G188">
-        <v>39975</v>
+        <v>22514</v>
       </c>
       <c r="H188">
-        <v>-6500</v>
+        <v>-8301</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -7754,30 +7757,33 @@
         <v>2</v>
       </c>
       <c r="L188" t="s">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="M188" t="s">
+        <v>129</v>
+      </c>
+      <c r="N188" t="s">
         <v>4</v>
       </c>
-      <c r="N188" t="s">
+      <c r="O188" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="189" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E189">
-        <v>-22514</v>
+        <v>-101628</v>
       </c>
       <c r="F189">
-        <v>8301</v>
+        <v>125860</v>
       </c>
       <c r="G189">
-        <v>22514</v>
+        <v>101628</v>
       </c>
       <c r="H189">
-        <v>-8301</v>
+        <v>-125860</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -7789,10 +7795,10 @@
         <v>2</v>
       </c>
       <c r="L189" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M189" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N189" t="s">
         <v>4</v>
@@ -7806,16 +7812,16 @@
         <v>243</v>
       </c>
       <c r="E190">
-        <v>-101628</v>
+        <v>-526340.03</v>
       </c>
       <c r="F190">
-        <v>125860</v>
+        <v>358341</v>
       </c>
       <c r="G190">
-        <v>101628</v>
+        <v>526340.03</v>
       </c>
       <c r="H190">
-        <v>-125860</v>
+        <v>-358341</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -7827,10 +7833,10 @@
         <v>2</v>
       </c>
       <c r="L190" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M190" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N190" t="s">
         <v>4</v>
@@ -7844,36 +7850,30 @@
         <v>244</v>
       </c>
       <c r="E191">
-        <v>-526340.03</v>
+        <v>27738</v>
       </c>
       <c r="F191">
-        <v>358341</v>
+        <v>188028</v>
       </c>
       <c r="G191">
-        <v>526340.03</v>
+        <v>166126</v>
       </c>
       <c r="H191">
-        <v>-358341</v>
+        <v>5836</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L191" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="M191" t="s">
-        <v>130</v>
-      </c>
-      <c r="N191" t="s">
-        <v>4</v>
-      </c>
-      <c r="O191" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7882,30 +7882,33 @@
         <v>245</v>
       </c>
       <c r="E192">
-        <v>27738</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>188028</v>
+        <v>52000</v>
       </c>
       <c r="G192">
-        <v>166126</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>5836</v>
+        <v>-52000</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M192" t="s">
+        <v>40</v>
+      </c>
+      <c r="N192" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7917,13 +7920,13 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>52000</v>
+        <v>77240.490000000005</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>-52000</v>
+        <v>-77240.490000000005</v>
       </c>
       <c r="I193">
         <v>1</v>
@@ -7935,10 +7938,10 @@
         <v>1</v>
       </c>
       <c r="L193" t="s">
+        <v>39</v>
+      </c>
+      <c r="M193" t="s">
         <v>40</v>
-      </c>
-      <c r="M193" t="s">
-        <v>41</v>
       </c>
       <c r="N193" t="s">
         <v>5</v>
@@ -7952,28 +7955,28 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>77240.490000000005</v>
+        <v>630154</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>630154</v>
       </c>
       <c r="H194">
-        <v>-77240.490000000005</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L194" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M194" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N194" t="s">
         <v>5</v>
@@ -7987,30 +7990,27 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>630154</v>
+        <v>216771</v>
       </c>
       <c r="G195">
-        <v>630154</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>-216771</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="M195" t="s">
-        <v>36</v>
-      </c>
-      <c r="N195" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8019,30 +8019,36 @@
         <v>249</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>-269026</v>
       </c>
       <c r="F196">
-        <v>216771</v>
+        <v>331619</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>611213</v>
       </c>
       <c r="H196">
-        <v>-216771</v>
+        <v>10568</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196">
         <v>1</v>
       </c>
       <c r="K196" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L196" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="M196" t="s">
+        <v>28</v>
+      </c>
+      <c r="N196" t="s">
+        <v>4</v>
+      </c>
+      <c r="O196" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8051,16 +8057,16 @@
         <v>250</v>
       </c>
       <c r="E197">
-        <v>-269026</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>331619</v>
+        <v>9285102</v>
       </c>
       <c r="G197">
-        <v>611213</v>
+        <v>9251453</v>
       </c>
       <c r="H197">
-        <v>10568</v>
+        <v>-33649</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -8072,10 +8078,10 @@
         <v>2</v>
       </c>
       <c r="L197" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="M197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N197" t="s">
         <v>4</v>
@@ -8092,68 +8098,30 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>9285102</v>
+        <v>6515499</v>
       </c>
       <c r="G198">
-        <v>9251453</v>
+        <v>6515499</v>
       </c>
       <c r="H198">
-        <v>-33649</v>
+        <v>0</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K198" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L198" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="M198" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N198" t="s">
-        <v>4</v>
-      </c>
-      <c r="O198" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D199" t="s">
-        <v>252</v>
-      </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199">
-        <v>6515499</v>
-      </c>
-      <c r="G199">
-        <v>6515499</v>
-      </c>
-      <c r="H199">
-        <v>0</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
-      <c r="J199">
-        <v>0</v>
-      </c>
-      <c r="K199" t="s">
-        <v>0</v>
-      </c>
-      <c r="L199" t="s">
-        <v>35</v>
-      </c>
-      <c r="M199" t="s">
-        <v>36</v>
-      </c>
-      <c r="N199" t="s">
         <v>5</v>
       </c>
     </row>

--- a/SRM_Pro/TB format.xlsx
+++ b/SRM_Pro/TB format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ICAI_Audit_Tool\nw\SRM_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393DCD67-765C-4CF5-ABC8-FF127A29585F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FCEFA9-27F7-40FF-92A9-F8EDD806E4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{024B333F-E51D-4051-BE86-FFC39602633C}"/>
   </bookViews>
@@ -1293,7 +1293,7 @@
   <dimension ref="A1:U198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SRM_Pro/TB format.xlsx
+++ b/SRM_Pro/TB format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ICAI_Audit_Tool\nw\SRM_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FCEFA9-27F7-40FF-92A9-F8EDD806E4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95855F54-8ED2-44D3-813F-983F620E7315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{024B333F-E51D-4051-BE86-FFC39602633C}"/>
   </bookViews>
@@ -1292,9 +1292,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
